--- a/Employee_Form/ExcelFiles/User.xlsx
+++ b/Employee_Form/ExcelFiles/User.xlsx
@@ -465,16 +465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +578,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -606,19 +608,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
